--- a/ColonyQuest/ColonyQuest/Book1.xlsx
+++ b/ColonyQuest/ColonyQuest/Book1.xlsx
@@ -2,17 +2,17 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\oda\チーム制作\test2 ti-mu\ACG\ACG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Akira_Ikeda\Game_Development\test\前期課題\ACT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7545"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -79,36 +79,70 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
+          <bgColor rgb="FFFF3300"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
+          <bgColor rgb="FFFF3300"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDD4747"/>
         </patternFill>
       </fill>
     </dxf>
@@ -129,7 +163,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
+          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -150,244 +184,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
@@ -402,12 +198,26 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF33CC33"/>
+      <color rgb="FFFF3300"/>
+      <color rgb="FFDD4747"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -682,36 +492,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CV10"/>
+  <dimension ref="A1:CV21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="BG1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="CU9" sqref="CU9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="29" width="2.375" customWidth="1"/>
-    <col min="30" max="30" width="2.5" customWidth="1"/>
-    <col min="31" max="31" width="2.375" customWidth="1"/>
-    <col min="32" max="32" width="2.25" customWidth="1"/>
-    <col min="33" max="34" width="2.375" customWidth="1"/>
-    <col min="35" max="35" width="2.5" customWidth="1"/>
-    <col min="36" max="36" width="2.625" customWidth="1"/>
-    <col min="37" max="37" width="2.5" customWidth="1"/>
-    <col min="38" max="38" width="2.25" customWidth="1"/>
-    <col min="39" max="39" width="2.5" customWidth="1"/>
-    <col min="40" max="40" width="2.375" customWidth="1"/>
-    <col min="41" max="42" width="2.5" customWidth="1"/>
-    <col min="43" max="43" width="2.625" customWidth="1"/>
-    <col min="44" max="45" width="2.375" customWidth="1"/>
-    <col min="46" max="46" width="2.5" customWidth="1"/>
-    <col min="47" max="50" width="2.375" customWidth="1"/>
-    <col min="51" max="51" width="2.25" customWidth="1"/>
-    <col min="52" max="52" width="2.375" customWidth="1"/>
-    <col min="53" max="53" width="2.25" customWidth="1"/>
-    <col min="54" max="96" width="2.375" customWidth="1"/>
-    <col min="97" max="97" width="2.25" customWidth="1"/>
-    <col min="98" max="100" width="2.375" customWidth="1"/>
+    <col min="1" max="50" width="2.375" style="2" customWidth="1"/>
+    <col min="51" max="100" width="2.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" x14ac:dyDescent="0.15">
@@ -859,10 +649,10 @@
       <c r="AV1" s="1">
         <v>1</v>
       </c>
-      <c r="AW1" s="1">
-        <v>1</v>
-      </c>
-      <c r="AX1" s="1">
+      <c r="AW1" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX1" s="3">
         <v>1</v>
       </c>
       <c r="AY1" s="1">
@@ -1009,10 +799,10 @@
       <c r="CT1" s="1">
         <v>1</v>
       </c>
-      <c r="CU1" s="1">
-        <v>1</v>
-      </c>
-      <c r="CV1" s="1">
+      <c r="CU1" s="3">
+        <v>1</v>
+      </c>
+      <c r="CV1" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1032,7 +822,7 @@
       <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="3">
         <v>0</v>
       </c>
       <c r="G2" s="1">
@@ -1089,7 +879,7 @@
       <c r="X2" s="1">
         <v>0</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Y2" s="3">
         <v>0</v>
       </c>
       <c r="Z2" s="1">
@@ -1137,7 +927,7 @@
       <c r="AN2" s="1">
         <v>0</v>
       </c>
-      <c r="AO2" s="1">
+      <c r="AO2" s="3">
         <v>0</v>
       </c>
       <c r="AP2" s="1">
@@ -1173,148 +963,148 @@
       <c r="AZ2" s="1">
         <v>0</v>
       </c>
-      <c r="BA2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BV2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CN2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CO2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CP2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CR2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CS2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CT2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CU2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CV2" s="1">
+      <c r="BA2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BW2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BX2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BY2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BZ2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CA2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CB2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CE2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CG2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CH2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CI2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CK2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CL2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CM2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CN2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CO2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CQ2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CR2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CU2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CV2" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1475,148 +1265,148 @@
       <c r="AZ3" s="1">
         <v>0</v>
       </c>
-      <c r="BA3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BV3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CN3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CO3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CP3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CR3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CS3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CT3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CU3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CV3" s="1">
+      <c r="BA3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BX3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BY3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BZ3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CA3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CB3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CG3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CH3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CI3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CK3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CL3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CN3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CO3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CQ3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CR3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CU3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CV3" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1777,148 +1567,148 @@
       <c r="AZ4" s="1">
         <v>0</v>
       </c>
-      <c r="BA4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BV4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CN4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CO4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CP4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CR4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CS4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CT4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CU4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CV4" s="1">
+      <c r="BA4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BW4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BX4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BY4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BZ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CA4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CB4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CE4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CG4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CH4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CI4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CK4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CL4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CM4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CN4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CO4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CQ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CR4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CU4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CV4" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1981,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U5" s="1">
         <v>0</v>
@@ -2079,148 +1869,148 @@
       <c r="AZ5" s="1">
         <v>0</v>
       </c>
-      <c r="BA5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BV5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CN5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CO5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CP5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CR5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CS5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CT5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CU5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CV5" s="1">
+      <c r="BA5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BX5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BY5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BZ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CB5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CE5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CG5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CH5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CI5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CK5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CL5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CM5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CN5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CO5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CQ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CR5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CU5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CV5" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2280,10 +2070,10 @@
         <v>0</v>
       </c>
       <c r="S6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" s="1">
         <v>0</v>
@@ -2292,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6" s="1">
         <v>0</v>
@@ -2381,148 +2171,148 @@
       <c r="AZ6" s="1">
         <v>0</v>
       </c>
-      <c r="BA6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BV6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CN6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CO6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CP6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CR6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CS6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CT6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CU6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CV6" s="1">
+      <c r="BA6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BX6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BY6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BZ6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CB6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CE6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CG6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CH6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CI6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CK6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CL6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CM6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CN6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CO6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CQ6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CR6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CU6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CV6" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2576,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="Q7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" s="1">
         <v>0</v>
@@ -2594,10 +2384,10 @@
         <v>0</v>
       </c>
       <c r="W7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" s="1">
         <v>0</v>
@@ -2683,148 +2473,148 @@
       <c r="AZ7" s="1">
         <v>0</v>
       </c>
-      <c r="BA7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BV7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CN7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CO7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CP7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CR7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CS7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CT7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CU7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CV7" s="1">
+      <c r="BA7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BX7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BZ7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CA7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CB7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CE7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF7" s="3">
+        <v>1</v>
+      </c>
+      <c r="CG7" s="3">
+        <v>1</v>
+      </c>
+      <c r="CH7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CI7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CK7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CL7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CM7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CN7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CO7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CQ7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CR7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CU7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CV7" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2872,22 +2662,22 @@
         <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="1">
         <v>0</v>
@@ -2896,13 +2686,13 @@
         <v>0</v>
       </c>
       <c r="W8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8" s="1">
         <v>0</v>
@@ -2985,148 +2775,148 @@
       <c r="AZ8" s="1">
         <v>0</v>
       </c>
-      <c r="BA8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BV8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CN8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CO8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CP8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CR8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CS8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CT8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CU8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CV8" s="1">
+      <c r="BA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BW8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BX8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BY8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BZ8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD8" s="3">
+        <v>1</v>
+      </c>
+      <c r="CE8" s="3">
+        <v>1</v>
+      </c>
+      <c r="CF8" s="3">
+        <v>1</v>
+      </c>
+      <c r="CG8" s="3">
+        <v>1</v>
+      </c>
+      <c r="CH8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CI8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CK8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CL8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CM8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CN8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CO8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CQ8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CR8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CU8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CV8" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3168,118 +2958,118 @@
         <v>0</v>
       </c>
       <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1</v>
+      </c>
+      <c r="R9" s="1">
+        <v>1</v>
+      </c>
+      <c r="S9" s="1">
+        <v>1</v>
+      </c>
+      <c r="T9" s="1">
+        <v>1</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>1</v>
+      </c>
+      <c r="X9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="1">
         <v>4</v>
       </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1">
+      <c r="AL9" s="1">
         <v>4</v>
       </c>
-      <c r="P9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>0</v>
-      </c>
-      <c r="R9" s="1">
-        <v>0</v>
-      </c>
-      <c r="S9" s="1">
+      <c r="AM9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="1">
         <v>4</v>
       </c>
-      <c r="T9" s="1">
-        <v>0</v>
-      </c>
-      <c r="U9" s="1">
-        <v>0</v>
-      </c>
-      <c r="V9" s="1">
+      <c r="AS9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="1">
         <v>4</v>
       </c>
-      <c r="W9" s="1">
-        <v>0</v>
-      </c>
-      <c r="X9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="1">
-        <v>0</v>
-      </c>
       <c r="AW9" s="1">
         <v>0</v>
       </c>
       <c r="AX9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY9" s="1">
         <v>0</v>
@@ -3287,148 +3077,148 @@
       <c r="AZ9" s="1">
         <v>0</v>
       </c>
-      <c r="BA9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BV9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CN9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CO9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CP9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CR9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CS9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CT9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CU9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CV9" s="1">
+      <c r="BA9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="3">
+        <v>1</v>
+      </c>
+      <c r="BE9" s="3">
+        <v>1</v>
+      </c>
+      <c r="BF9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK9" s="3">
+        <v>1</v>
+      </c>
+      <c r="BL9" s="3">
+        <v>1</v>
+      </c>
+      <c r="BM9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP9" s="3">
+        <v>4</v>
+      </c>
+      <c r="BQ9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV9" s="3">
+        <v>4</v>
+      </c>
+      <c r="BW9" s="3">
+        <v>4</v>
+      </c>
+      <c r="BX9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BY9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BZ9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CA9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CB9" s="3">
+        <v>1</v>
+      </c>
+      <c r="CC9" s="3">
+        <v>1</v>
+      </c>
+      <c r="CD9" s="3">
+        <v>1</v>
+      </c>
+      <c r="CE9" s="3">
+        <v>1</v>
+      </c>
+      <c r="CF9" s="3">
+        <v>1</v>
+      </c>
+      <c r="CG9" s="3">
+        <v>1</v>
+      </c>
+      <c r="CH9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CI9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CK9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CL9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CM9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CN9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CO9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CQ9" s="3">
+        <v>4</v>
+      </c>
+      <c r="CR9" s="3">
+        <v>4</v>
+      </c>
+      <c r="CS9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CU9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CV9" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3437,13 +3227,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -3494,10 +3284,10 @@
         <v>1</v>
       </c>
       <c r="U10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" s="1">
         <v>1</v>
@@ -3521,10 +3311,10 @@
         <v>1</v>
       </c>
       <c r="AD10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF10" s="1">
         <v>1</v>
@@ -3533,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="AH10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>1</v>
@@ -3551,10 +3341,10 @@
         <v>1</v>
       </c>
       <c r="AN10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP10" s="1">
         <v>1</v>
@@ -3577,17 +3367,17 @@
       <c r="AV10" s="1">
         <v>1</v>
       </c>
-      <c r="AW10" s="1">
-        <v>1</v>
-      </c>
-      <c r="AX10" s="1">
+      <c r="AW10" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX10" s="3">
         <v>1</v>
       </c>
       <c r="AY10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA10" s="1">
         <v>1</v>
@@ -3605,13 +3395,13 @@
         <v>1</v>
       </c>
       <c r="BF10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>1</v>
@@ -3626,7 +3416,7 @@
         <v>1</v>
       </c>
       <c r="BM10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>1</v>
@@ -3659,10 +3449,10 @@
         <v>1</v>
       </c>
       <c r="BX10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ10" s="1">
         <v>1</v>
@@ -3689,22 +3479,22 @@
         <v>1</v>
       </c>
       <c r="CH10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN10" s="1">
         <v>1</v>
@@ -3725,7 +3515,7 @@
         <v>1</v>
       </c>
       <c r="CT10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CU10" s="1">
         <v>3</v>
@@ -3733,119 +3523,596 @@
       <c r="CV10" s="1">
         <v>1</v>
       </c>
+    </row>
+    <row r="12" spans="1:100" x14ac:dyDescent="0.15">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+      <c r="AG12"/>
+      <c r="AH12"/>
+      <c r="AI12"/>
+      <c r="AJ12"/>
+      <c r="AK12"/>
+      <c r="AL12"/>
+      <c r="AM12"/>
+      <c r="AN12"/>
+      <c r="AO12"/>
+      <c r="AP12"/>
+      <c r="AQ12"/>
+      <c r="AR12"/>
+      <c r="AS12"/>
+      <c r="AT12"/>
+      <c r="AU12"/>
+      <c r="AV12"/>
+      <c r="AW12"/>
+      <c r="AX12"/>
+    </row>
+    <row r="13" spans="1:100" x14ac:dyDescent="0.15">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+      <c r="AG13"/>
+      <c r="AH13"/>
+      <c r="AI13"/>
+      <c r="AJ13"/>
+      <c r="AK13"/>
+      <c r="AL13"/>
+      <c r="AM13"/>
+      <c r="AN13"/>
+      <c r="AO13"/>
+      <c r="AP13"/>
+      <c r="AQ13"/>
+      <c r="AR13"/>
+      <c r="AS13"/>
+      <c r="AT13"/>
+      <c r="AU13"/>
+      <c r="AV13"/>
+      <c r="AW13"/>
+      <c r="AX13"/>
+    </row>
+    <row r="14" spans="1:100" x14ac:dyDescent="0.15">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+      <c r="AG14"/>
+      <c r="AH14"/>
+      <c r="AI14"/>
+      <c r="AJ14"/>
+      <c r="AK14"/>
+      <c r="AL14"/>
+      <c r="AM14"/>
+      <c r="AN14"/>
+      <c r="AO14"/>
+      <c r="AP14"/>
+      <c r="AQ14"/>
+      <c r="AR14"/>
+      <c r="AS14"/>
+      <c r="AT14"/>
+      <c r="AU14"/>
+      <c r="AV14"/>
+      <c r="AW14"/>
+      <c r="AX14"/>
+    </row>
+    <row r="15" spans="1:100" x14ac:dyDescent="0.15">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15"/>
+      <c r="AG15"/>
+      <c r="AH15"/>
+      <c r="AI15"/>
+      <c r="AJ15"/>
+      <c r="AK15"/>
+      <c r="AL15"/>
+      <c r="AM15"/>
+      <c r="AN15"/>
+      <c r="AO15"/>
+      <c r="AP15"/>
+      <c r="AQ15"/>
+      <c r="AR15"/>
+      <c r="AS15"/>
+      <c r="AT15"/>
+      <c r="AU15"/>
+      <c r="AV15"/>
+      <c r="AW15"/>
+      <c r="AX15"/>
+    </row>
+    <row r="16" spans="1:100" x14ac:dyDescent="0.15">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+      <c r="AI16"/>
+      <c r="AJ16"/>
+      <c r="AK16"/>
+      <c r="AL16"/>
+      <c r="AM16"/>
+      <c r="AN16"/>
+      <c r="AO16"/>
+      <c r="AP16"/>
+      <c r="AQ16"/>
+      <c r="AR16"/>
+      <c r="AS16"/>
+      <c r="AT16"/>
+      <c r="AU16"/>
+      <c r="AV16"/>
+      <c r="AW16"/>
+      <c r="AX16"/>
+    </row>
+    <row r="17" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
+      <c r="AG17"/>
+      <c r="AH17"/>
+      <c r="AI17"/>
+      <c r="AJ17"/>
+      <c r="AK17"/>
+      <c r="AL17"/>
+      <c r="AM17"/>
+      <c r="AN17"/>
+      <c r="AO17"/>
+      <c r="AP17"/>
+      <c r="AQ17"/>
+      <c r="AR17"/>
+      <c r="AS17"/>
+      <c r="AT17"/>
+      <c r="AU17"/>
+      <c r="AV17"/>
+      <c r="AW17"/>
+      <c r="AX17"/>
+    </row>
+    <row r="18" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+      <c r="AC18"/>
+      <c r="AD18"/>
+      <c r="AE18"/>
+      <c r="AF18"/>
+      <c r="AG18"/>
+      <c r="AH18"/>
+      <c r="AI18"/>
+      <c r="AJ18"/>
+      <c r="AK18"/>
+      <c r="AL18"/>
+      <c r="AM18"/>
+      <c r="AN18"/>
+      <c r="AO18"/>
+      <c r="AP18"/>
+      <c r="AQ18"/>
+      <c r="AR18"/>
+      <c r="AS18"/>
+      <c r="AT18"/>
+      <c r="AU18"/>
+      <c r="AV18"/>
+      <c r="AW18"/>
+      <c r="AX18"/>
+    </row>
+    <row r="19" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19"/>
+      <c r="AB19"/>
+      <c r="AC19"/>
+      <c r="AD19"/>
+      <c r="AE19"/>
+      <c r="AF19"/>
+      <c r="AG19"/>
+      <c r="AH19"/>
+      <c r="AI19"/>
+      <c r="AJ19"/>
+      <c r="AK19"/>
+      <c r="AL19"/>
+      <c r="AM19"/>
+      <c r="AN19"/>
+      <c r="AO19"/>
+      <c r="AP19"/>
+      <c r="AQ19"/>
+      <c r="AR19"/>
+      <c r="AS19"/>
+      <c r="AT19"/>
+      <c r="AU19"/>
+      <c r="AV19"/>
+      <c r="AW19"/>
+      <c r="AX19"/>
+    </row>
+    <row r="20" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
+      <c r="AE20"/>
+      <c r="AF20"/>
+      <c r="AG20"/>
+      <c r="AH20"/>
+      <c r="AI20"/>
+      <c r="AJ20"/>
+      <c r="AK20"/>
+      <c r="AL20"/>
+      <c r="AM20"/>
+      <c r="AN20"/>
+      <c r="AO20"/>
+      <c r="AP20"/>
+      <c r="AQ20"/>
+      <c r="AR20"/>
+      <c r="AS20"/>
+      <c r="AT20"/>
+      <c r="AU20"/>
+      <c r="AV20"/>
+      <c r="AW20"/>
+      <c r="AX20"/>
+    </row>
+    <row r="21" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
+      <c r="AE21"/>
+      <c r="AF21"/>
+      <c r="AG21"/>
+      <c r="AH21"/>
+      <c r="AI21"/>
+      <c r="AJ21"/>
+      <c r="AK21"/>
+      <c r="AL21"/>
+      <c r="AM21"/>
+      <c r="AN21"/>
+      <c r="AO21"/>
+      <c r="AP21"/>
+      <c r="AQ21"/>
+      <c r="AR21"/>
+      <c r="AS21"/>
+      <c r="AT21"/>
+      <c r="AU21"/>
+      <c r="AV21"/>
+      <c r="AW21"/>
+      <c r="AX21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:A10 B1:D1 F1:AX1 AP7:AP10 E1:E7 V9:AB10 B6:CU6 D1:D8 C2:CU9 B10:CU10">
-    <cfRule type="cellIs" dxfId="16" priority="29" operator="equal">
+  <conditionalFormatting sqref="AK2:AZ9 A1:AX10">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ15:AZ16">
-    <cfRule type="cellIs" dxfId="44" priority="25" operator="equal">
+  <conditionalFormatting sqref="AY2:CV9">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CV2:CV10 A6:CU6 AY1:CV1 D1:D3 B2:CU9 E10:CT10">
-    <cfRule type="cellIs" dxfId="43" priority="24" operator="equal">
+  <conditionalFormatting sqref="AY1:CV1 AY10:CV10">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CU10">
-    <cfRule type="cellIs" dxfId="42" priority="23" operator="equal">
-      <formula>3</formula>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E7 E2:L10 G10:CT10">
-    <cfRule type="cellIs" dxfId="13" priority="22" operator="equal">
-      <formula>2</formula>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL9">
-    <cfRule type="cellIs" dxfId="41" priority="17" operator="equal">
-      <formula>4</formula>
+  <conditionalFormatting sqref="A1:CV10">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM14">
-    <cfRule type="cellIs" dxfId="39" priority="16" operator="equal">
-      <formula>4</formula>
+  <conditionalFormatting sqref="Y2">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:CV10">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
-      <formula>4</formula>
+  <conditionalFormatting sqref="AO2">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:D10">
-    <cfRule type="cellIs" dxfId="38" priority="14" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="12" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:CU6">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="36" priority="11" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9:F10 E10 G10:CT10">
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD8">
-    <cfRule type="cellIs" dxfId="35" priority="9" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y8">
-    <cfRule type="cellIs" dxfId="34" priority="8" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF8">
-    <cfRule type="cellIs" dxfId="33" priority="7" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BZ9">
-    <cfRule type="cellIs" dxfId="32" priority="6" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ10:AK10">
-    <cfRule type="cellIs" dxfId="31" priority="5" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT9:AU9">
-    <cfRule type="cellIs" dxfId="30" priority="4" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CU6">
-    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ9">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
-      <formula>1</formula>
+  <conditionalFormatting sqref="F2">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ColonyQuest/ColonyQuest/Book1.xlsx
+++ b/ColonyQuest/ColonyQuest/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Akira_Ikeda\Game_Development\test\前期課題\ACT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Source\Repos\GA1AB-gamedev\ColonyQuest\ColonyQuest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/ColonyQuest/ColonyQuest/Book1.xlsx
+++ b/ColonyQuest/ColonyQuest/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Source\Repos\GA1AB-gamedev\ColonyQuest\ColonyQuest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Source\Repos\新しいリポジトリ\ColonyQuest\ColonyQuest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -494,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BG1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="CU9" sqref="CU9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="R6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S6" s="1">
         <v>1</v>
@@ -3048,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="AQ9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AR9" s="1">
         <v>4</v>
